--- a/Signs.xlsx
+++ b/Signs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chientuhocai\Traffic_Sign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F939332E-FF67-4B61-98FD-B46687DF2696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE875D-846A-45D4-A93E-A80E50EC3BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{64888029-AD92-4FAA-99F0-3407127AE84B}"/>
   </bookViews>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Label</t>
   </si>
@@ -240,13 +240,20 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,16 +267,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,14 +297,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -751,358 +791,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF770EA-CCFA-41D9-BA3F-14DFF5BEB6A3}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2">
-        <v>3500</v>
-      </c>
-      <c r="E2">
-        <v>750</v>
-      </c>
-      <c r="F2">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="C2" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>750</v>
+      </c>
+      <c r="F2" s="1">
+        <v>750</v>
+      </c>
+      <c r="G2" s="2">
+        <f>SUM(D2:F2)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="3" t="str">
         <f>$B$2</f>
         <v>P.127</v>
       </c>
-      <c r="C3" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3">
-        <v>3500</v>
-      </c>
-      <c r="E3">
-        <v>750</v>
-      </c>
-      <c r="F3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <f t="shared" ref="A4:A15" si="0">A3+1</f>
+      <c r="C3" s="3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>750</v>
+      </c>
+      <c r="F3" s="1">
+        <v>750</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G17" si="0">SUM(D3:F3)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A15" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:B10" si="1">$B$2</f>
+      <c r="B4" s="3" t="str">
+        <f t="shared" ref="B4:B10" si="2">$B$2</f>
         <v>P.127</v>
       </c>
-      <c r="C4" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4">
-        <v>3500</v>
-      </c>
-      <c r="E4">
-        <v>750</v>
-      </c>
-      <c r="F4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <f t="shared" si="0"/>
+      <c r="C4" s="3" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>750</v>
+      </c>
+      <c r="F4" s="1">
+        <v>750</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>P.127</v>
+      </c>
+      <c r="C5" s="3" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>750</v>
+      </c>
+      <c r="F5" s="1">
+        <v>750</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>P.127</v>
       </c>
-      <c r="C5" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5">
-        <v>3500</v>
-      </c>
-      <c r="E5">
-        <v>750</v>
-      </c>
-      <c r="F5">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
+      <c r="C6" s="3" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>750</v>
+      </c>
+      <c r="F6" s="1">
+        <v>750</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>P.127</v>
       </c>
-      <c r="C6" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6">
-        <v>3500</v>
-      </c>
-      <c r="E6">
-        <v>750</v>
-      </c>
-      <c r="F6">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <f t="shared" si="0"/>
+      <c r="C7" s="3" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>750</v>
+      </c>
+      <c r="F7" s="1">
+        <v>750</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>750</v>
+      </c>
+      <c r="F8" s="1">
+        <v>750</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>P.127</v>
+      </c>
+      <c r="C9" s="3" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>750</v>
+      </c>
+      <c r="F9" s="1">
+        <v>750</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>P.127</v>
+      </c>
+      <c r="C10" s="3" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>750</v>
+      </c>
+      <c r="F10" s="1">
+        <v>750</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>750</v>
+      </c>
+      <c r="F11" s="1">
+        <v>750</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>750</v>
+      </c>
+      <c r="F12" s="1">
+        <v>750</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="1"/>
-        <v>P.127</v>
-      </c>
-      <c r="C7" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7">
-        <v>3500</v>
-      </c>
-      <c r="E7">
-        <v>750</v>
-      </c>
-      <c r="F7">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8">
-        <v>3500</v>
-      </c>
-      <c r="E8">
-        <v>750</v>
-      </c>
-      <c r="F8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="1"/>
-        <v>P.127</v>
-      </c>
-      <c r="C9" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9">
-        <v>3500</v>
-      </c>
-      <c r="E9">
-        <v>750</v>
-      </c>
-      <c r="F9">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="1"/>
-        <v>P.127</v>
-      </c>
-      <c r="C10" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10">
-        <v>3500</v>
-      </c>
-      <c r="E10">
-        <v>750</v>
-      </c>
-      <c r="F10">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11">
-        <v>3500</v>
-      </c>
-      <c r="E11">
-        <v>750</v>
-      </c>
-      <c r="F11">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12">
-        <v>3500</v>
-      </c>
-      <c r="E12">
-        <v>750</v>
-      </c>
-      <c r="F12">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13">
-        <v>3500</v>
-      </c>
-      <c r="E13">
-        <v>750</v>
-      </c>
-      <c r="F13">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="C13" s="3" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>750</v>
+      </c>
+      <c r="F13" s="1">
+        <v>750</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14">
-        <v>3500</v>
-      </c>
-      <c r="E14">
-        <v>750</v>
-      </c>
-      <c r="F14">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <f t="shared" si="0"/>
+      <c r="C14" s="3" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>750</v>
+      </c>
+      <c r="F14" s="1">
+        <v>750</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15">
-        <v>3500</v>
-      </c>
-      <c r="E15">
-        <v>750</v>
-      </c>
-      <c r="F15">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="C15" s="3" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E15" s="1">
+        <v>750</v>
+      </c>
+      <c r="F15" s="1">
+        <v>750</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16">
-        <v>3500</v>
-      </c>
-      <c r="E16">
-        <v>750</v>
-      </c>
-      <c r="F16">
-        <v>750</v>
+      <c r="C16" s="3" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E16" s="1">
+        <v>750</v>
+      </c>
+      <c r="F16" s="1">
+        <v>750</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
+        <f>SUM(D2:D16)</f>
+        <v>52500</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:F17" si="3">SUM(E2:E16)</f>
+        <v>11250</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>11250</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
